--- a/test/config1/xlsx/任务.xlsx
+++ b/test/config1/xlsx/任务.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\quan\quan.java\quan-config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quan\IdeaProjects\qconfig\test\config1\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="任务" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -410,7 +410,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
